--- a/5_Semestre/Electronica_Avanzada/Laboratorio/8_Oscillator/Practica_8.xlsx
+++ b/5_Semestre/Electronica_Avanzada/Laboratorio/8_Oscillator/Practica_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Desktop\Ing_en_automatizacion\5_Semestre\Electronica_Avanzada\Laboratorio\8_Oscillator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB417C89-1551-4804-BA11-98BB23723A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC5604A-455B-445B-8CA1-6A7077E09E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EE8F81DC-0CDE-41BA-AE8B-C8AD40841FE2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Datos Requeridos</t>
   </si>
@@ -84,7 +84,16 @@
     <t>Phase Shift Oscillator</t>
   </si>
   <si>
-    <t>V1</t>
+    <t>Vsat</t>
+  </si>
+  <si>
+    <t>Vsat+</t>
+  </si>
+  <si>
+    <t>V1+</t>
+  </si>
+  <si>
+    <t>V1-</t>
   </si>
 </sst>
 </file>
@@ -96,7 +105,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -167,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -199,23 +208,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -257,13 +255,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -271,6 +263,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -609,29 +608,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A7C140-7A0E-4E6E-9DFB-6DE334BD7185}">
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="269" zoomScaleNormal="269" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="21.7109375" customWidth="1"/>
+    <col min="2" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -658,11 +659,11 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -684,94 +685,115 @@
         <f>0.159/(C5*D5)</f>
         <v>719.39418865230323</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <f>1+B8/B5</f>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <f>20*LOG(D8)</f>
         <v>9.5424250943932485</v>
       </c>
       <c r="G9" s="16"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="F14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
-        <v>982</v>
-      </c>
-      <c r="C15" s="3">
-        <v>982</v>
-      </c>
-      <c r="D15" s="9">
+        <v>970</v>
+      </c>
+      <c r="C15" s="9">
         <v>2.2319999999999999E-7</v>
       </c>
+      <c r="D15" s="21"/>
+      <c r="F15" s="22">
+        <v>11.6</v>
+      </c>
+      <c r="G15" s="22">
+        <v>-11.4</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="F16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="14">
+      <c r="F17" s="14">
+        <f>F15*(B15/(B15+C18))</f>
+        <v>5.3703703703703711</v>
+      </c>
+      <c r="G17" s="14">
+        <f>G15*(B15/(B15+C18))</f>
+        <v>-5.2777777777777786</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
+        <v>9960</v>
+      </c>
+      <c r="C18" s="14">
         <f>1.16*B15</f>
-        <v>1139.1199999999999</v>
-      </c>
-      <c r="C18" s="14">
-        <f>1/(2*C15*D15)</f>
-        <v>2281.2050602603131</v>
+        <v>1125.1999999999998</v>
       </c>
       <c r="D18" s="14">
-        <f>7.8*(B15/(B15+B18))</f>
-        <v>3.6111111111111112</v>
+        <f>1/(2*B18*C15)</f>
+        <v>224.91399288911921</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -792,17 +814,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="G2" s="17" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="G2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -870,10 +892,10 @@
       <c r="H6" s="1"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="20"/>
       <c r="E8" s="12" t="s">
         <v>7</v>
       </c>
